--- a/3. Resultados/1. reporte_de_ventas_NOV_1_15 - NOMINA/0. Consolidado.xlsx
+++ b/3. Resultados/1. reporte_de_ventas_NOV_1_15 - NOMINA/0. Consolidado.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P318"/>
+  <dimension ref="A1:O318"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -433,11 +433,6 @@
           <t>Revisar</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Observación</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -15369,11 +15364,6 @@
       <c r="N283">
         <v>693000</v>
       </c>
-      <c r="P283" t="inlineStr">
-        <is>
-          <t>11 días</t>
-        </is>
-      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -15949,11 +15939,6 @@
       <c r="N306">
         <v>-7500</v>
       </c>
-      <c r="P306" t="inlineStr">
-        <is>
-          <t>Caldo</t>
-        </is>
-      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -15979,11 +15964,6 @@
       <c r="N307">
         <v>-50000</v>
       </c>
-      <c r="P307" t="inlineStr">
-        <is>
-          <t>1 de 3</t>
-        </is>
-      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -16134,11 +16114,6 @@
       <c r="N313">
         <v>-115254</v>
       </c>
-      <c r="P313" t="inlineStr">
-        <is>
-          <t>pago acueducto</t>
-        </is>
-      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -16239,11 +16214,6 @@
       <c r="N317">
         <v>-73800</v>
       </c>
-      <c r="P317" t="inlineStr">
-        <is>
-          <t>compra organic</t>
-        </is>
-      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -16268,11 +16238,6 @@
       </c>
       <c r="N318">
         <v>-31733</v>
-      </c>
-      <c r="P318" t="inlineStr">
-        <is>
-          <t>Dryll 1 de 3</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/3. Resultados/1. reporte_de_ventas_NOV_1_15 - NOMINA/0. Consolidado.xlsx
+++ b/3. Resultados/1. reporte_de_ventas_NOV_1_15 - NOMINA/0. Consolidado.xlsx
@@ -14302,12 +14302,12 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>2024-11-15</t>
+          <t>15/11/2024</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Fondo - Ahorro - NA</t>
+          <t>Fondo - Ahorro</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -14327,12 +14327,12 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>02/11/2024</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Fondo - Almuerzo - NA</t>
+          <t>Fondo - Almuerzo</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -14352,12 +14352,12 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>2024-11-09</t>
+          <t>09/11/2024</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Fondo - Almuerzo - NA</t>
+          <t>Fondo - Almuerzo</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -14377,12 +14377,12 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>2024-11-09</t>
+          <t>09/11/2024</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Descuento - Anticipo - NA</t>
+          <t>Descuento - Anticipo</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -14402,12 +14402,12 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>2024-11-17</t>
+          <t>17/11/2024</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Descuento - Anticipo - NA</t>
+          <t>Descuento - Anticipo</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -14427,7 +14427,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>2024-11-09</t>
+          <t>09/11/2024</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -14452,7 +14452,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>2024-11-15</t>
+          <t>15/11/2024</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -14477,12 +14477,12 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>2024-11-15</t>
+          <t>15/11/2024</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Fondo - Ahorro - NA</t>
+          <t>Fondo - Ahorro</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -14502,12 +14502,12 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>2024-11-15</t>
+          <t>15/11/2024</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Apoyo - NA - 11 días</t>
+          <t>Apoyo - 11 días</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -14527,12 +14527,12 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>2024-11-09</t>
+          <t>09/11/2024</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Fondo - Almuerzo - NA</t>
+          <t>Fondo - Almuerzo</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -14552,12 +14552,12 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>2024-11-15</t>
+          <t>15/11/2024</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Fondo - Ahorro - NA</t>
+          <t>Fondo - Ahorro</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -14577,12 +14577,12 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>02/11/2024</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Fondo - Almuerzo - NA</t>
+          <t>Fondo - Almuerzo</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -14602,12 +14602,12 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>2024-11-09</t>
+          <t>09/11/2024</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Fondo - Almuerzo - NA</t>
+          <t>Fondo - Almuerzo</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -14627,12 +14627,12 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>06/11/2024</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Descuento - Anticipo - NA</t>
+          <t>Descuento - Anticipo</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -14652,12 +14652,12 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>2024-11-09</t>
+          <t>09/11/2024</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Descuento - Anticipo - NA</t>
+          <t>Descuento - Anticipo</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -14677,12 +14677,12 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>2024-11-15</t>
+          <t>15/11/2024</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Fondo - Ahorro - NA</t>
+          <t>Fondo - Ahorro</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -14702,12 +14702,12 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>2024-11-09</t>
+          <t>09/11/2024</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Fondo - Almuerzo - NA</t>
+          <t>Fondo - Almuerzo</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -14727,7 +14727,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>2024-11-15</t>
+          <t>15/11/2024</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14752,7 +14752,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>2024-11-05</t>
+          <t>05/11/2024</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14777,7 +14777,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>2024-11-05</t>
+          <t>05/11/2024</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14802,7 +14802,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>05/10/2024</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14827,12 +14827,12 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>2024-11-15</t>
+          <t>15/11/2024</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Fondo - Prestamo - NA</t>
+          <t>Fondo - Prestamo</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -14852,12 +14852,12 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>2024-11-15</t>
+          <t>15/11/2024</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Fondo - Intereses - NA</t>
+          <t>Fondo - Intereses</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -14877,12 +14877,12 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>2024-11-15</t>
+          <t>15/11/2024</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Fondo - Prestamo - NA</t>
+          <t>Fondo - Prestamo</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -14902,12 +14902,12 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>2024-11-15</t>
+          <t>15/11/2024</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Fondo - Intereses - NA</t>
+          <t>Fondo - Intereses</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -14927,12 +14927,12 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>02/11/2024</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Fondo - Almuerzo - NA</t>
+          <t>Fondo - Almuerzo</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -14952,12 +14952,12 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>2024-11-09</t>
+          <t>09/11/2024</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Fondo - Almuerzo - NA</t>
+          <t>Fondo - Almuerzo</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -14977,12 +14977,12 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>04/11/2024</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Descuento - Anticipo - NA</t>
+          <t>Descuento - Anticipo</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -15002,12 +15002,12 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>08/11/2024</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Descuento - Anticipo - NA</t>
+          <t>Descuento - Anticipo</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -15027,12 +15027,12 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>2024-11-13</t>
+          <t>13/11/2024</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Descuento - Anticipo - NA</t>
+          <t>Descuento - Anticipo</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -15052,12 +15052,12 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>2024-11-13</t>
+          <t>13/11/2024</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Descuento - Anticipo - NA</t>
+          <t>Descuento - Anticipo</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -15077,7 +15077,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>2024-11-13</t>
+          <t>13/11/2024</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15102,12 +15102,12 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>2024-11-15</t>
+          <t>15/11/2024</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Fondo - Ahorro - NA</t>
+          <t>Fondo - Ahorro</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -15127,7 +15127,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>05/10/2024</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15152,12 +15152,12 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>2024-11-15</t>
+          <t>15/11/2024</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Fondo - Ahorro - NA</t>
+          <t>Fondo - Ahorro</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -15177,12 +15177,12 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>02/11/2024</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Fondo - Almuerzo - NA</t>
+          <t>Fondo - Almuerzo</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -15202,12 +15202,12 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>2024-11-09</t>
+          <t>09/11/2024</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Fondo - Almuerzo - NA</t>
+          <t>Fondo - Almuerzo</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -15227,12 +15227,12 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>2024-11-15</t>
+          <t>15/11/2024</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Fondo - Ahorro - NA</t>
+          <t>Fondo - Ahorro</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -15252,12 +15252,12 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>2024-11-15</t>
+          <t>15/11/2024</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Fondo - Ahorro - NA</t>
+          <t>Fondo - Ahorro</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -15277,12 +15277,12 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>2024-11-15</t>
+          <t>15/11/2024</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Fondo - Prestamo - NA</t>
+          <t>Fondo - Prestamo</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -15302,12 +15302,12 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>2024-11-15</t>
+          <t>15/11/2024</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Fondo - Intereses - NA</t>
+          <t>Fondo - Intereses</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -15327,12 +15327,12 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>2024-11-09</t>
+          <t>09/11/2024</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Fondo - Almuerzo - NA</t>
+          <t>Fondo - Almuerzo</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -15352,12 +15352,12 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>02/11/2024</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Descuento - Anticipo - NA</t>
+          <t>Descuento - Anticipo</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -15377,12 +15377,12 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>2024-11-09</t>
+          <t>09/11/2024</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Fondo - desayuno - NA</t>
+          <t>Fondo - desayuno</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -15402,7 +15402,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15427,12 +15427,12 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>2024-11-15</t>
+          <t>15/11/2024</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Fondo - Ahorro - NA</t>
+          <t>Fondo - Ahorro</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
@@ -15452,12 +15452,12 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>02/11/2024</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Fondo - Almuerzo - NA</t>
+          <t>Fondo - Almuerzo</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
@@ -15477,7 +15477,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>2024-11-15</t>
+          <t>15/11/2024</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15502,12 +15502,12 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>2024-11-15</t>
+          <t>15/11/2024</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Fondo - Intereses - NA</t>
+          <t>Fondo - Intereses</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">

--- a/3. Resultados/1. reporte_de_ventas_NOV_1_15 - NOMINA/0. Consolidado.xlsx
+++ b/3. Resultados/1. reporte_de_ventas_NOV_1_15 - NOMINA/0. Consolidado.xlsx
@@ -15525,6 +15525,11 @@
       </c>
     </row>
     <row r="325">
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>Apoyo Económico</t>
+        </is>
+      </c>
       <c r="D325" t="inlineStr">
         <is>
           <t>Marinela Olaya</t>
